--- a/projects/post-audit-cleaned_optim_v1.xlsx
+++ b/projects/post-audit-cleaned_optim_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="0" windowWidth="23256" windowHeight="5700" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="-33540" yWindow="0" windowWidth="23256" windowHeight="5700" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Lookups" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Y$15</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -1515,358 +1515,358 @@
     <t>Run Data Point Filename</t>
   </si>
   <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>MJ/m2</t>
+  </si>
+  <si>
+    <t>OpenStudio Server Version</t>
+  </si>
+  <si>
+    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised.</t>
+  </si>
+  <si>
+    <t>Cluster Name</t>
+  </si>
+  <si>
+    <t>Disable this is the analysis is large</t>
+  </si>
+  <si>
+    <t>Display name of the analysis</t>
+  </si>
+  <si>
+    <t>0.1.10</t>
+  </si>
+  <si>
+    <t>Analysis Cluster</t>
+  </si>
+  <si>
+    <t>This is the name used to identify the compute cluster (snake-cased). If you use this name in other spreadsheets, then you are able to submit multiple jobs to the same compute cluster.</t>
+  </si>
+  <si>
+    <t>Relative to this spreadsheet</t>
+  </si>
+  <si>
+    <t>Continuous Variable Description</t>
+  </si>
+  <si>
+    <t>Discrete Variable Description</t>
+  </si>
+  <si>
+    <t>Discrete Values</t>
+  </si>
+  <si>
+    <t>Discrete Weights</t>
+  </si>
+  <si>
+    <t>Shift Occupancy Schedule Profile Time</t>
+  </si>
+  <si>
+    <t>Shift Clg setp Schedule Profile Time</t>
+  </si>
+  <si>
+    <t>Shift Htg Setp Schedule Profile Time</t>
+  </si>
+  <si>
+    <t>Shift Ltg Schedule Profile Time</t>
+  </si>
+  <si>
+    <t>Shift Equip Schedule Profile Time</t>
+  </si>
+  <si>
+    <t>../seeds/11122_LargeOfficeOSM_AirCooledChiller.osm</t>
+  </si>
+  <si>
+    <t>Large Office Bldg Occ</t>
+  </si>
+  <si>
+    <t>Large Office ClgSetp</t>
+  </si>
+  <si>
+    <t>Large Office HtgSetp</t>
+  </si>
+  <si>
+    <t>Large Office Bldg Light</t>
+  </si>
+  <si>
+    <t>Large Office Bldg Equip</t>
+  </si>
+  <si>
+    <t>Set Boiler Thermal Efficiency</t>
+  </si>
+  <si>
+    <t>SetBoilerThermalEfficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply the measure to </t>
+  </si>
+  <si>
+    <t>boiler_widget</t>
+  </si>
+  <si>
+    <t>boiler_display_names[0]</t>
+  </si>
+  <si>
+    <t>|0,boiler_display_names[0]|</t>
+  </si>
+  <si>
+    <t>Option 1, set boiler nominal thermal efficiency to a user defined value</t>
+  </si>
+  <si>
+    <t>input_option_manual</t>
+  </si>
+  <si>
+    <t>Boiler nominal thermal efficiency (between 0 and 1)</t>
+  </si>
+  <si>
+    <t>boiler_thermal_efficiency</t>
+  </si>
+  <si>
+    <t>Option 2, set boiler nominal thermal efficiency based on ASHRAE Standard 90.1 requirement</t>
+  </si>
+  <si>
+    <t>input_option_standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boiler nominal capacity [W] </t>
+  </si>
+  <si>
+    <t>nominal_capacity</t>
+  </si>
+  <si>
+    <t>Fuel type</t>
+  </si>
+  <si>
+    <t>fuel_type_widget</t>
+  </si>
+  <si>
+    <t>fuel_type_display_names[0]</t>
+  </si>
+  <si>
+    <t>|0,1,2,fuel_type_display_names[0]|</t>
+  </si>
+  <si>
+    <t>ASHRAE Standards 90.1</t>
+  </si>
+  <si>
+    <t>standards_widget</t>
+  </si>
+  <si>
+    <t>standards_display_names[0]</t>
+  </si>
+  <si>
+    <t>|0,1,2,3,4,standards_display_names[0]|</t>
+  </si>
+  <si>
+    <t>*All boilers*</t>
+  </si>
+  <si>
+    <t>Set Water Heater Efficiency, Heat Loss, and Peak Water Flow Rate</t>
+  </si>
+  <si>
+    <t>SetWaterHeaterEfficiencyHeatLossandPeakWaterFlowRate</t>
+  </si>
+  <si>
+    <t>Apply the measure to</t>
+  </si>
+  <si>
+    <t>waterheater_widget</t>
+  </si>
+  <si>
+    <t>waterheater_display_names[0]</t>
+  </si>
+  <si>
+    <t>|0,waterheater_display_names[0]|</t>
+  </si>
+  <si>
+    <t>heater_fuel_type_widget</t>
+  </si>
+  <si>
+    <t>heater_fuel_type_display_names[0]</t>
+  </si>
+  <si>
+    <t>|heater_fuel_type_display_names[0]|</t>
+  </si>
+  <si>
+    <t>Thermal efficiency [between 0 and 1]</t>
+  </si>
+  <si>
+    <t>heater_thermal_efficiency</t>
+  </si>
+  <si>
+    <t>Loss coefficient to ambient temperature [W/K] (optional input, baseline value will be used if empty)</t>
+  </si>
+  <si>
+    <t>onoff_cycle_loss_coefficient_to_ambient_temperature</t>
+  </si>
+  <si>
+    <t>Peak water use flow rate [m3/s] (optional input, baseline value will be used if empty)</t>
+  </si>
+  <si>
+    <t>peak_use_flow_rate</t>
+  </si>
+  <si>
+    <t>new_user</t>
+  </si>
+  <si>
+    <t>FixedDryBulb</t>
+  </si>
+  <si>
+    <t>|FixedDryBulb|</t>
+  </si>
+  <si>
+    <t>Shift Schedule Profiles Forward  Occupancy</t>
+  </si>
+  <si>
+    <t>Shift Schedule Profiles Forward Clg</t>
+  </si>
+  <si>
+    <t>Shift Schedule Profiles Forward Htg</t>
+  </si>
+  <si>
+    <t>Shift Schedule Profiles Forward Ltg</t>
+  </si>
+  <si>
+    <t>Shift Schedule Profiles Forward Equip</t>
+  </si>
+  <si>
+    <t>Modify EnergyPlus Fan Varaible Volume Objects</t>
+  </si>
+  <si>
+    <t>ModifyEnergyPlusFanVariableVolumeObjects</t>
+  </si>
+  <si>
+    <t>Pressure Rise (Pa).</t>
+  </si>
+  <si>
+    <t>pressureRise</t>
+  </si>
+  <si>
+    <t>Allow both increase and decrease in R-value to reach requested target?</t>
+  </si>
+  <si>
+    <t>allow_reduction</t>
+  </si>
+  <si>
+    <t>SetChillerCOP</t>
+  </si>
+  <si>
+    <t>chiller_widget</t>
+  </si>
+  <si>
+    <t>Chiller Rated COP (more than 0)</t>
+  </si>
+  <si>
+    <t>chiller_thermal_efficiency</t>
+  </si>
+  <si>
+    <t>*All chillers*</t>
+  </si>
+  <si>
+    <t>|*All chillers*|</t>
+  </si>
+  <si>
+    <t>Minimum VAV Terminal Flow Fraction (%)</t>
+  </si>
+  <si>
+    <t>SetMinimumVAVTerminalFlowFraction</t>
+  </si>
+  <si>
+    <t>min_vav_frac</t>
+  </si>
+  <si>
+    <t>Set Minimum VAV Terminal Flow Fraction</t>
+  </si>
+  <si>
+    <t>SetHeatingandCoolingSizingFactors</t>
+  </si>
+  <si>
+    <t>Set Heating and Cooling Sizing Factors</t>
+  </si>
+  <si>
+    <t>Heating Sizing Factor (eg 1.25 = 125% of required heating capacity.</t>
+  </si>
+  <si>
+    <t>htg_sz_factor</t>
+  </si>
+  <si>
+    <t>clg_sz_factor</t>
+  </si>
+  <si>
+    <t>Coolinig Sizing Factor (eg 1.15 = 115% of required cooling capacity.</t>
+  </si>
+  <si>
+    <t>SetChilledWaterLoopTemperature</t>
+  </si>
+  <si>
+    <t>Set Chilled Water Loop Temperature</t>
+  </si>
+  <si>
+    <t>Desired chilled water setpoint (F)</t>
+  </si>
+  <si>
+    <t>cw_temp_f</t>
+  </si>
+  <si>
+    <t>SetHotWaterLoopTemperature</t>
+  </si>
+  <si>
+    <t>hw_temp_f</t>
+  </si>
+  <si>
+    <t>Desired hot water setpoint (F)</t>
+  </si>
+  <si>
+    <t>Set Hot Water Loop Temperature</t>
+  </si>
+  <si>
+    <t>Total Natual Gas</t>
+  </si>
+  <si>
+    <t>total_natural_gas</t>
+  </si>
+  <si>
+    <t>Total Electricity</t>
+  </si>
+  <si>
+    <t>total_electricity</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>epsilonGradient</t>
+  </si>
+  <si>
+    <t>normType</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>pPower</t>
+  </si>
+  <si>
+    <t>optim</t>
+  </si>
+  <si>
+    <t>Post Audit optim</t>
+  </si>
+  <si>
+    <t>pgtol</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>LargeOfficeOSM_optim</t>
+  </si>
+  <si>
     <t>run_openstudio_workflow.rb</t>
-  </si>
-  <si>
-    <t>Outputs</t>
-  </si>
-  <si>
-    <t>MJ/m2</t>
-  </si>
-  <si>
-    <t>OpenStudio Server Version</t>
-  </si>
-  <si>
-    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised.</t>
-  </si>
-  <si>
-    <t>Cluster Name</t>
-  </si>
-  <si>
-    <t>Disable this is the analysis is large</t>
-  </si>
-  <si>
-    <t>Display name of the analysis</t>
-  </si>
-  <si>
-    <t>0.1.10</t>
-  </si>
-  <si>
-    <t>Analysis Cluster</t>
-  </si>
-  <si>
-    <t>This is the name used to identify the compute cluster (snake-cased). If you use this name in other spreadsheets, then you are able to submit multiple jobs to the same compute cluster.</t>
-  </si>
-  <si>
-    <t>Relative to this spreadsheet</t>
-  </si>
-  <si>
-    <t>Continuous Variable Description</t>
-  </si>
-  <si>
-    <t>Discrete Variable Description</t>
-  </si>
-  <si>
-    <t>Discrete Values</t>
-  </si>
-  <si>
-    <t>Discrete Weights</t>
-  </si>
-  <si>
-    <t>Shift Occupancy Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>Shift Clg setp Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>Shift Htg Setp Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>Shift Ltg Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>Shift Equip Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>../seeds/11122_LargeOfficeOSM_AirCooledChiller.osm</t>
-  </si>
-  <si>
-    <t>Large Office Bldg Occ</t>
-  </si>
-  <si>
-    <t>Large Office ClgSetp</t>
-  </si>
-  <si>
-    <t>Large Office HtgSetp</t>
-  </si>
-  <si>
-    <t>Large Office Bldg Light</t>
-  </si>
-  <si>
-    <t>Large Office Bldg Equip</t>
-  </si>
-  <si>
-    <t>Set Boiler Thermal Efficiency</t>
-  </si>
-  <si>
-    <t>SetBoilerThermalEfficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apply the measure to </t>
-  </si>
-  <si>
-    <t>boiler_widget</t>
-  </si>
-  <si>
-    <t>boiler_display_names[0]</t>
-  </si>
-  <si>
-    <t>|0,boiler_display_names[0]|</t>
-  </si>
-  <si>
-    <t>Option 1, set boiler nominal thermal efficiency to a user defined value</t>
-  </si>
-  <si>
-    <t>input_option_manual</t>
-  </si>
-  <si>
-    <t>Boiler nominal thermal efficiency (between 0 and 1)</t>
-  </si>
-  <si>
-    <t>boiler_thermal_efficiency</t>
-  </si>
-  <si>
-    <t>Option 2, set boiler nominal thermal efficiency based on ASHRAE Standard 90.1 requirement</t>
-  </si>
-  <si>
-    <t>input_option_standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boiler nominal capacity [W] </t>
-  </si>
-  <si>
-    <t>nominal_capacity</t>
-  </si>
-  <si>
-    <t>Fuel type</t>
-  </si>
-  <si>
-    <t>fuel_type_widget</t>
-  </si>
-  <si>
-    <t>fuel_type_display_names[0]</t>
-  </si>
-  <si>
-    <t>|0,1,2,fuel_type_display_names[0]|</t>
-  </si>
-  <si>
-    <t>ASHRAE Standards 90.1</t>
-  </si>
-  <si>
-    <t>standards_widget</t>
-  </si>
-  <si>
-    <t>standards_display_names[0]</t>
-  </si>
-  <si>
-    <t>|0,1,2,3,4,standards_display_names[0]|</t>
-  </si>
-  <si>
-    <t>*All boilers*</t>
-  </si>
-  <si>
-    <t>Set Water Heater Efficiency, Heat Loss, and Peak Water Flow Rate</t>
-  </si>
-  <si>
-    <t>SetWaterHeaterEfficiencyHeatLossandPeakWaterFlowRate</t>
-  </si>
-  <si>
-    <t>Apply the measure to</t>
-  </si>
-  <si>
-    <t>waterheater_widget</t>
-  </si>
-  <si>
-    <t>waterheater_display_names[0]</t>
-  </si>
-  <si>
-    <t>|0,waterheater_display_names[0]|</t>
-  </si>
-  <si>
-    <t>heater_fuel_type_widget</t>
-  </si>
-  <si>
-    <t>heater_fuel_type_display_names[0]</t>
-  </si>
-  <si>
-    <t>|heater_fuel_type_display_names[0]|</t>
-  </si>
-  <si>
-    <t>Thermal efficiency [between 0 and 1]</t>
-  </si>
-  <si>
-    <t>heater_thermal_efficiency</t>
-  </si>
-  <si>
-    <t>Loss coefficient to ambient temperature [W/K] (optional input, baseline value will be used if empty)</t>
-  </si>
-  <si>
-    <t>onoff_cycle_loss_coefficient_to_ambient_temperature</t>
-  </si>
-  <si>
-    <t>Peak water use flow rate [m3/s] (optional input, baseline value will be used if empty)</t>
-  </si>
-  <si>
-    <t>peak_use_flow_rate</t>
-  </si>
-  <si>
-    <t>new_user</t>
-  </si>
-  <si>
-    <t>FixedDryBulb</t>
-  </si>
-  <si>
-    <t>|FixedDryBulb|</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward  Occupancy</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward Clg</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward Htg</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward Ltg</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward Equip</t>
-  </si>
-  <si>
-    <t>Modify EnergyPlus Fan Varaible Volume Objects</t>
-  </si>
-  <si>
-    <t>ModifyEnergyPlusFanVariableVolumeObjects</t>
-  </si>
-  <si>
-    <t>Pressure Rise (Pa).</t>
-  </si>
-  <si>
-    <t>pressureRise</t>
-  </si>
-  <si>
-    <t>Allow both increase and decrease in R-value to reach requested target?</t>
-  </si>
-  <si>
-    <t>allow_reduction</t>
-  </si>
-  <si>
-    <t>SetChillerCOP</t>
-  </si>
-  <si>
-    <t>chiller_widget</t>
-  </si>
-  <si>
-    <t>Chiller Rated COP (more than 0)</t>
-  </si>
-  <si>
-    <t>chiller_thermal_efficiency</t>
-  </si>
-  <si>
-    <t>*All chillers*</t>
-  </si>
-  <si>
-    <t>|*All chillers*|</t>
-  </si>
-  <si>
-    <t>Minimum VAV Terminal Flow Fraction (%)</t>
-  </si>
-  <si>
-    <t>SetMinimumVAVTerminalFlowFraction</t>
-  </si>
-  <si>
-    <t>min_vav_frac</t>
-  </si>
-  <si>
-    <t>Set Minimum VAV Terminal Flow Fraction</t>
-  </si>
-  <si>
-    <t>SetHeatingandCoolingSizingFactors</t>
-  </si>
-  <si>
-    <t>Set Heating and Cooling Sizing Factors</t>
-  </si>
-  <si>
-    <t>Heating Sizing Factor (eg 1.25 = 125% of required heating capacity.</t>
-  </si>
-  <si>
-    <t>htg_sz_factor</t>
-  </si>
-  <si>
-    <t>clg_sz_factor</t>
-  </si>
-  <si>
-    <t>Coolinig Sizing Factor (eg 1.15 = 115% of required cooling capacity.</t>
-  </si>
-  <si>
-    <t>SetChilledWaterLoopTemperature</t>
-  </si>
-  <si>
-    <t>Set Chilled Water Loop Temperature</t>
-  </si>
-  <si>
-    <t>Desired chilled water setpoint (F)</t>
-  </si>
-  <si>
-    <t>cw_temp_f</t>
-  </si>
-  <si>
-    <t>SetHotWaterLoopTemperature</t>
-  </si>
-  <si>
-    <t>hw_temp_f</t>
-  </si>
-  <si>
-    <t>Desired hot water setpoint (F)</t>
-  </si>
-  <si>
-    <t>Set Hot Water Loop Temperature</t>
-  </si>
-  <si>
-    <t>Total Natual Gas</t>
-  </si>
-  <si>
-    <t>total_natural_gas</t>
-  </si>
-  <si>
-    <t>Total Electricity</t>
-  </si>
-  <si>
-    <t>total_electricity</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>epsilonGradient</t>
-  </si>
-  <si>
-    <t>normType</t>
-  </si>
-  <si>
-    <t>minkowski</t>
-  </si>
-  <si>
-    <t>pPower</t>
-  </si>
-  <si>
-    <t>optim</t>
-  </si>
-  <si>
-    <t>Post Audit optim</t>
-  </si>
-  <si>
-    <t>pgtol</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>LargeOfficeOSM_optim</t>
   </si>
 </sst>
 </file>
@@ -5206,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5243,7 +5243,7 @@
         <v>446</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>447</v>
@@ -5254,7 +5254,7 @@
         <v>479</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>480</v>
@@ -5262,24 +5262,24 @@
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>611</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5347,10 +5347,10 @@
         <v>46</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -5361,7 +5361,7 @@
         <v>472</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5410,7 +5410,7 @@
         <v>494</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>495</v>
+        <v>612</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>447</v>
@@ -5435,7 +5435,7 @@
         <v>474</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5462,36 +5462,36 @@
         <v>4</v>
       </c>
       <c r="B25" s="25">
-        <v>1000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B26" s="35">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B27" s="35">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>605</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B29" s="35">
         <v>1</v>
@@ -5540,13 +5540,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>468</v>
@@ -5596,9 +5596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5636,13 +5636,13 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="6"/>
@@ -5711,10 +5711,10 @@
         <v>9</v>
       </c>
       <c r="N3" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>509</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>510</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>8</v>
@@ -5848,17 +5848,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="K8" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="3">
         <f>(K8-J8)/6</f>
-        <v>3.3333333333333335</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="1" t="s">
@@ -6131,17 +6131,17 @@
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="3">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="K18" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
         <f>(K18-J18)/6</f>
-        <v>5.833333333333333</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="1" t="s">
@@ -6485,7 +6485,7 @@
     </row>
     <row r="32" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>197</v>
@@ -6681,17 +6681,17 @@
       </c>
       <c r="I38" s="20"/>
       <c r="J38">
-        <v>-30</v>
+        <v>-90</v>
       </c>
       <c r="K38">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L38" s="20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M38" s="3">
         <f>(K38-J38)/6</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N38" s="1"/>
       <c r="P38" s="1" t="s">
@@ -6700,7 +6700,7 @@
     </row>
     <row r="39" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>226</v>
@@ -6763,10 +6763,10 @@
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="I41" s="20" t="s">
         <v>561</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>562</v>
       </c>
       <c r="N41" s="1"/>
     </row>
@@ -7075,11 +7075,11 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="b">
-        <v>1</v>
+      <c r="A54" t="b">
+        <v>0</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>396</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I55" s="20" t="s">
         <v>440</v>
@@ -7126,7 +7126,7 @@
         <v>26</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>400</v>
@@ -7161,11 +7161,11 @@
       </c>
     </row>
     <row r="57" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="b">
-        <v>1</v>
+      <c r="A57" t="b">
+        <v>0</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>396</v>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I58" s="20" t="s">
         <v>440</v>
@@ -7230,7 +7230,7 @@
         <v>26</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>400</v>
@@ -7269,11 +7269,11 @@
       <c r="S59" s="33"/>
     </row>
     <row r="60" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="b">
-        <v>1</v>
+      <c r="A60" t="b">
+        <v>0</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>396</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I61" s="20" t="s">
         <v>440</v>
@@ -7338,7 +7338,7 @@
         <v>26</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>400</v>
@@ -7377,11 +7377,11 @@
       <c r="S62" s="33"/>
     </row>
     <row r="63" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="b">
-        <v>1</v>
+      <c r="A63" t="b">
+        <v>0</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>396</v>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I64" s="20" t="s">
         <v>440</v>
@@ -7446,7 +7446,7 @@
         <v>26</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>400</v>
@@ -7485,11 +7485,11 @@
       <c r="S65" s="33"/>
     </row>
     <row r="66" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="b">
-        <v>1</v>
+      <c r="A66" t="b">
+        <v>0</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>396</v>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I67" s="20" t="s">
         <v>440</v>
@@ -7556,7 +7556,7 @@
         <v>26</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>400</v>
@@ -7601,13 +7601,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="C69" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -7616,73 +7616,61 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
       <c r="T69" s="33"/>
       <c r="U69" s="33"/>
       <c r="V69" s="33"/>
     </row>
-    <row r="70" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A70"/>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="D70" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
-      </c>
-      <c r="H70">
-        <v>500</v>
-      </c>
-      <c r="J70">
-        <v>400</v>
-      </c>
-      <c r="K70">
-        <v>700</v>
-      </c>
-      <c r="L70">
-        <v>500</v>
-      </c>
-      <c r="M70" s="3">
-        <f>(K70-J70)/6</f>
-        <v>50</v>
-      </c>
-      <c r="N70" s="1"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33" t="s">
-        <v>28</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70" t="s">
+        <v>543</v>
+      </c>
+      <c r="I70" t="s">
+        <v>526</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" t="b">
+      <c r="A71"/>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>527</v>
+      </c>
+      <c r="D71" t="s">
+        <v>528</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71" t="b">
         <v>1</v>
       </c>
-      <c r="B71" t="s">
-        <v>522</v>
-      </c>
-      <c r="C71" t="s">
-        <v>523</v>
-      </c>
-      <c r="D71" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
@@ -7693,29 +7681,42 @@
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D72" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="E72" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G72"/>
-      <c r="H72" t="s">
-        <v>544</v>
-      </c>
-      <c r="I72" t="s">
-        <v>527</v>
-      </c>
-      <c r="J72"/>
-      <c r="K72"/>
+      <c r="H72">
+        <v>0.8</v>
+      </c>
+      <c r="I72"/>
+      <c r="J72">
+        <v>0.5</v>
+      </c>
+      <c r="K72">
+        <v>0.9</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M72" s="3">
+        <f>(K72-J72)/6</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33" t="s">
+        <v>28</v>
+      </c>
       <c r="T72" s="33"/>
       <c r="U72" s="33"/>
       <c r="V72" s="33"/>
@@ -7726,10 +7727,10 @@
         <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D73" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E73" t="s">
         <v>2</v>
@@ -7739,7 +7740,7 @@
       </c>
       <c r="G73"/>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
@@ -7751,42 +7752,27 @@
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D74" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>72</v>
       </c>
       <c r="G74"/>
-      <c r="H74">
-        <v>0.8</v>
+      <c r="H74" t="b">
+        <v>0</v>
       </c>
       <c r="I74"/>
-      <c r="J74">
-        <v>0.6</v>
-      </c>
-      <c r="K74">
-        <v>0.8</v>
-      </c>
-      <c r="L74" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="M74" s="3">
-        <f>(K74-J74)/6</f>
-        <v>3.3333333333333347E-2</v>
-      </c>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="J74"/>
+      <c r="K74"/>
       <c r="T74" s="33"/>
       <c r="U74" s="33"/>
       <c r="V74" s="33"/>
@@ -7797,22 +7783,24 @@
         <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D75" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E75" t="s">
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G75"/>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75"/>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>538</v>
+      </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="T75" s="33"/>
@@ -7825,100 +7813,114 @@
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D76" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E76" t="s">
         <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G76"/>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76"/>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>542</v>
+      </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="T76" s="33"/>
       <c r="U76" s="33"/>
       <c r="V76" s="33"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77"/>
+    <row r="77" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="b">
+        <v>0</v>
+      </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="C77" t="s">
-        <v>536</v>
+        <v>266</v>
       </c>
       <c r="D77" t="s">
-        <v>537</v>
-      </c>
-      <c r="E77" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s">
-        <v>70</v>
-      </c>
-      <c r="G77"/>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
-        <v>539</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="T77" s="33"/>
-      <c r="U77" s="33"/>
-      <c r="V77" s="33"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78"/>
+        <v>76</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>540</v>
+        <v>267</v>
       </c>
       <c r="D78" t="s">
-        <v>541</v>
+        <v>268</v>
       </c>
       <c r="E78" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>70</v>
-      </c>
-      <c r="G78"/>
+        <v>72</v>
+      </c>
       <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>543</v>
-      </c>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="T78" s="33"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
+      <c r="L78" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="M78" s="3">
+        <f>(K78-J78)/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N78" s="1"/>
+      <c r="P78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="b">
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>571</v>
+      </c>
+      <c r="D79" t="s">
+        <v>572</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" t="b">
         <v>1</v>
-      </c>
-      <c r="B79" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79" t="s">
-        <v>266</v>
-      </c>
-      <c r="D79" t="s">
-        <v>76</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="1"/>
@@ -7932,209 +7934,189 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80"/>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>72</v>
       </c>
+      <c r="G80"/>
       <c r="H80">
-        <v>5</v>
-      </c>
-      <c r="I80" s="5"/>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>5</v>
-      </c>
-      <c r="L80" s="20">
-        <v>2.5</v>
-      </c>
-      <c r="M80" s="3">
-        <f>(K80-J80)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N80" s="1"/>
-      <c r="P80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A81"/>
       <c r="B81" t="s">
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>572</v>
+        <v>271</v>
       </c>
       <c r="D81" t="s">
-        <v>573</v>
+        <v>272</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82" t="s">
         <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E82" t="s">
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G82"/>
       <c r="H82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83"/>
-      <c r="B83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" t="s">
-        <v>271</v>
-      </c>
-      <c r="D83" t="s">
-        <v>272</v>
-      </c>
-      <c r="E83" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s">
+    <row r="83" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>523</v>
+      </c>
+      <c r="D84" t="s">
+        <v>574</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" t="s">
+        <v>577</v>
+      </c>
+      <c r="I84" t="s">
+        <v>578</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="20"/>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
+        <v>575</v>
+      </c>
+      <c r="D85" t="s">
+        <v>576</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
         <v>72</v>
       </c>
-      <c r="G83"/>
-      <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84"/>
-      <c r="B84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" t="s">
-        <v>273</v>
-      </c>
-      <c r="D84" t="s">
-        <v>274</v>
-      </c>
-      <c r="E84" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s">
-        <v>73</v>
-      </c>
-      <c r="G84"/>
-      <c r="H84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>2.5</v>
+      </c>
+      <c r="K85">
+        <v>5.5</v>
+      </c>
+      <c r="L85" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="M85" s="3">
+        <f>(K85-J85)/6</f>
+        <v>0.5</v>
+      </c>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
+      <c r="P85" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="b">
+        <v>1</v>
+      </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>584</v>
       </c>
       <c r="C86" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="D86" t="s">
-        <v>575</v>
-      </c>
-      <c r="E86" t="s">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s">
-        <v>70</v>
-      </c>
-      <c r="H86" t="s">
-        <v>578</v>
-      </c>
-      <c r="I86" t="s">
-        <v>579</v>
-      </c>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-    </row>
-    <row r="87" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="20"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="D87" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
@@ -8143,86 +8125,84 @@
         <v>72</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>4</v>
-      </c>
-      <c r="L87" s="1">
-        <v>3.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="L87">
+        <v>1.25</v>
       </c>
       <c r="M87" s="3">
         <f>(K87-J87)/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="P87" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="b">
+    <row r="88" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>588</v>
+      </c>
+      <c r="D88" t="s">
+        <v>587</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J88">
         <v>1</v>
       </c>
-      <c r="B88" t="s">
-        <v>585</v>
-      </c>
-      <c r="C88" t="s">
-        <v>584</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="K88">
+        <v>1.5</v>
+      </c>
+      <c r="L88">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M88" s="3">
+        <f>(K88-J88)/6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="b">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>590</v>
+      </c>
+      <c r="C89" t="s">
+        <v>589</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" t="s">
-        <v>586</v>
-      </c>
-      <c r="D89" t="s">
-        <v>587</v>
-      </c>
-      <c r="E89" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" t="s">
-        <v>72</v>
-      </c>
-      <c r="H89">
-        <v>1.25</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
-        <v>1.5</v>
-      </c>
-      <c r="L89">
-        <v>1.25</v>
-      </c>
-      <c r="M89" s="3">
-        <f>(K89-J89)/6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D90" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -8231,48 +8211,48 @@
         <v>72</v>
       </c>
       <c r="H90">
-        <v>1.1499999999999999</v>
+        <v>44</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>46</v>
       </c>
       <c r="L90">
-        <v>1.1499999999999999</v>
+        <v>44</v>
       </c>
       <c r="M90" s="3">
         <f>(K90-J90)/6</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C91" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D92" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E92" t="s">
         <v>15</v>
@@ -8281,16 +8261,16 @@
         <v>72</v>
       </c>
       <c r="H92">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="J92">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="K92">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="L92">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="M92" s="3">
         <f>(K92-J92)/6</f>
@@ -8300,103 +8280,123 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" t="b">
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="C93" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>596</v>
-      </c>
-      <c r="D94" t="s">
-        <v>595</v>
+        <v>579</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="E94" t="s">
         <v>15</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H94">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="J94">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="L94">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M94" s="3">
         <f>(K94-J94)/6</f>
-        <v>0.66666666666666663</v>
+        <v>10</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" t="b">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C95" t="s">
-        <v>581</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="D95" t="s">
+        <v>170</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="33"/>
+      <c r="V95" s="33"/>
+    </row>
+    <row r="96" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>580</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>582</v>
+        <v>569</v>
+      </c>
+      <c r="D96" t="s">
+        <v>570</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" t="s">
         <v>72</v>
       </c>
       <c r="H96">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="J96">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="K96">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="L96">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="M96" s="3">
         <f>(K96-J96)/6</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="P96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N96" s="1"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8417,11 +8417,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8432,26 +8432,21 @@
     <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
-    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="7" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>483</v>
       </c>
@@ -8468,15 +8463,13 @@
         <v>487</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -8487,18 +8480,16 @@
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" t="s">
         <v>598</v>
       </c>
-      <c r="B4" t="s">
-        <v>599</v>
-      </c>
       <c r="C4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -8508,17 +8499,16 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" t="s">
         <v>600</v>
       </c>
-      <c r="B5" t="s">
-        <v>601</v>
-      </c>
       <c r="C5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -8528,200 +8518,160 @@
       </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="C9" s="15"/>
+      <c r="C9"/>
       <c r="D9"/>
-      <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
-      <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
-      <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
-      <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -8729,9 +8679,8 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -8739,18 +8688,6 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16123,10 +16060,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
+        <v>521</v>
+      </c>
+      <c r="C328" t="s">
         <v>522</v>
-      </c>
-      <c r="C328" t="s">
-        <v>523</v>
       </c>
       <c r="D328" t="s">
         <v>76</v>
@@ -16137,10 +16074,10 @@
         <v>25</v>
       </c>
       <c r="C329" t="s">
+        <v>523</v>
+      </c>
+      <c r="D329" t="s">
         <v>524</v>
-      </c>
-      <c r="D329" t="s">
-        <v>525</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -16149,10 +16086,10 @@
         <v>70</v>
       </c>
       <c r="H329" t="s">
+        <v>525</v>
+      </c>
+      <c r="I329" t="s">
         <v>526</v>
-      </c>
-      <c r="I329" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -16160,10 +16097,10 @@
         <v>25</v>
       </c>
       <c r="C330" t="s">
+        <v>527</v>
+      </c>
+      <c r="D330" t="s">
         <v>528</v>
-      </c>
-      <c r="D330" t="s">
-        <v>529</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -16180,10 +16117,10 @@
         <v>25</v>
       </c>
       <c r="C331" t="s">
+        <v>529</v>
+      </c>
+      <c r="D331" t="s">
         <v>530</v>
-      </c>
-      <c r="D331" t="s">
-        <v>531</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -16200,10 +16137,10 @@
         <v>25</v>
       </c>
       <c r="C332" t="s">
+        <v>531</v>
+      </c>
+      <c r="D332" t="s">
         <v>532</v>
-      </c>
-      <c r="D332" t="s">
-        <v>533</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -16220,10 +16157,10 @@
         <v>25</v>
       </c>
       <c r="C333" t="s">
+        <v>533</v>
+      </c>
+      <c r="D333" t="s">
         <v>534</v>
-      </c>
-      <c r="D333" t="s">
-        <v>535</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -16237,10 +16174,10 @@
         <v>25</v>
       </c>
       <c r="C334" t="s">
+        <v>535</v>
+      </c>
+      <c r="D334" t="s">
         <v>536</v>
-      </c>
-      <c r="D334" t="s">
-        <v>537</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -16249,10 +16186,10 @@
         <v>70</v>
       </c>
       <c r="H334" t="s">
+        <v>537</v>
+      </c>
+      <c r="I334" t="s">
         <v>538</v>
-      </c>
-      <c r="I334" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -16260,10 +16197,10 @@
         <v>25</v>
       </c>
       <c r="C335" t="s">
+        <v>539</v>
+      </c>
+      <c r="D335" t="s">
         <v>540</v>
-      </c>
-      <c r="D335" t="s">
-        <v>541</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -16272,10 +16209,10 @@
         <v>70</v>
       </c>
       <c r="H335" t="s">
+        <v>541</v>
+      </c>
+      <c r="I335" t="s">
         <v>542</v>
-      </c>
-      <c r="I335" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -16283,10 +16220,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
+        <v>544</v>
+      </c>
+      <c r="C336" t="s">
         <v>545</v>
-      </c>
-      <c r="C336" t="s">
-        <v>546</v>
       </c>
       <c r="D336" t="s">
         <v>76</v>
@@ -16297,10 +16234,10 @@
         <v>25</v>
       </c>
       <c r="C337" t="s">
+        <v>546</v>
+      </c>
+      <c r="D337" t="s">
         <v>547</v>
-      </c>
-      <c r="D337" t="s">
-        <v>548</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -16309,10 +16246,10 @@
         <v>70</v>
       </c>
       <c r="H337" t="s">
+        <v>548</v>
+      </c>
+      <c r="I337" t="s">
         <v>549</v>
-      </c>
-      <c r="I337" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -16320,10 +16257,10 @@
         <v>25</v>
       </c>
       <c r="C338" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D338" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -16332,10 +16269,10 @@
         <v>70</v>
       </c>
       <c r="H338" t="s">
+        <v>551</v>
+      </c>
+      <c r="I338" t="s">
         <v>552</v>
-      </c>
-      <c r="I338" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -16343,10 +16280,10 @@
         <v>25</v>
       </c>
       <c r="C339" t="s">
+        <v>553</v>
+      </c>
+      <c r="D339" t="s">
         <v>554</v>
-      </c>
-      <c r="D339" t="s">
-        <v>555</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -16363,10 +16300,10 @@
         <v>25</v>
       </c>
       <c r="C340" t="s">
+        <v>555</v>
+      </c>
+      <c r="D340" t="s">
         <v>556</v>
-      </c>
-      <c r="D340" t="s">
-        <v>557</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -16383,10 +16320,10 @@
         <v>25</v>
       </c>
       <c r="C341" t="s">
+        <v>557</v>
+      </c>
+      <c r="D341" t="s">
         <v>558</v>
-      </c>
-      <c r="D341" t="s">
-        <v>559</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -16400,10 +16337,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>76</v>
@@ -16427,10 +16364,10 @@
         <v>25</v>
       </c>
       <c r="C343" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D343" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -16439,10 +16376,10 @@
         <v>70</v>
       </c>
       <c r="H343" t="s">
+        <v>577</v>
+      </c>
+      <c r="I343" t="s">
         <v>578</v>
-      </c>
-      <c r="I343" t="s">
-        <v>579</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -16456,10 +16393,10 @@
         <v>25</v>
       </c>
       <c r="C344" t="s">
+        <v>575</v>
+      </c>
+      <c r="D344" t="s">
         <v>576</v>
-      </c>
-      <c r="D344" t="s">
-        <v>577</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -16494,10 +16431,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C345" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>76</v>
@@ -16508,10 +16445,10 @@
         <v>25</v>
       </c>
       <c r="C346" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -16722,10 +16659,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C357" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D357" t="s">
         <v>76</v>
@@ -16736,10 +16673,10 @@
         <v>25</v>
       </c>
       <c r="C358" t="s">
+        <v>585</v>
+      </c>
+      <c r="D358" t="s">
         <v>586</v>
-      </c>
-      <c r="D358" t="s">
-        <v>587</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -16756,10 +16693,10 @@
         <v>25</v>
       </c>
       <c r="C359" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D359" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -16776,10 +16713,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>76</v>
@@ -16792,10 +16729,10 @@
         <v>25</v>
       </c>
       <c r="C361" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D361" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -16805,10 +16742,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
+        <v>577</v>
+      </c>
+      <c r="I361" t="s">
         <v>578</v>
-      </c>
-      <c r="I361" t="s">
-        <v>579</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -16819,10 +16756,10 @@
         <v>26</v>
       </c>
       <c r="C362" t="s">
+        <v>575</v>
+      </c>
+      <c r="D362" t="s">
         <v>576</v>
-      </c>
-      <c r="D362" t="s">
-        <v>577</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -16859,10 +16796,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C363" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>76</v>
@@ -16873,10 +16810,10 @@
         <v>25</v>
       </c>
       <c r="C364" t="s">
+        <v>591</v>
+      </c>
+      <c r="D364" t="s">
         <v>592</v>
-      </c>
-      <c r="D364" t="s">
-        <v>593</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -16893,10 +16830,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C365" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>76</v>
@@ -16907,10 +16844,10 @@
         <v>25</v>
       </c>
       <c r="C366" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D366" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>

--- a/projects/post-audit-cleaned_optim_v1.xlsx
+++ b/projects/post-audit-cleaned_optim_v1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="0" windowWidth="23256" windowHeight="5700" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -5176,17 +5176,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -5206,21 +5206,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="22"/>
       <c r="B1" s="27"/>
       <c r="C1" s="22"/>
@@ -5229,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>445</v>
       </c>
@@ -5238,7 +5238,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>446</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>479</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>497</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
         <v>499</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>459</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>460</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>481</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="13" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>490</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>491</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>492</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>494</v>
       </c>
@@ -5416,10 +5416,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -5430,7 +5427,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>474</v>
       </c>
@@ -5438,7 +5435,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A23" s="12" t="s">
         <v>470</v>
       </c>
@@ -5449,7 +5446,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5457,7 +5454,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5465,7 +5462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>603</v>
       </c>
@@ -5473,7 +5470,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>609</v>
       </c>
@@ -5481,7 +5478,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>604</v>
       </c>
@@ -5489,7 +5486,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>606</v>
       </c>
@@ -5497,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A31" s="12" t="s">
         <v>38</v>
       </c>
@@ -5510,7 +5507,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -5518,7 +5515,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A34" s="12" t="s">
         <v>35</v>
       </c>
@@ -5535,7 +5532,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="28">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -5552,7 +5549,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A37" s="12" t="s">
         <v>40</v>
       </c>
@@ -5601,29 +5598,29 @@
       <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.44140625" style="1"/>
-    <col min="18" max="18" width="46.109375" style="1" customWidth="1"/>
-    <col min="19" max="21" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="11.5" style="1"/>
+    <col min="18" max="18" width="46.1640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.5" style="1"/>
     <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="23" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5657,7 +5654,7 @@
       <c r="W1" s="36"/>
       <c r="X1" s="36"/>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5670,7 +5667,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:24" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5741,7 +5738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5752,7 +5749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5773,7 +5770,7 @@
       <c r="M5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5796,7 +5793,7 @@
       <c r="M6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5826,7 +5823,7 @@
       <c r="M7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5865,7 +5862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5892,7 +5889,7 @@
       <c r="M9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5919,7 +5916,7 @@
       <c r="M10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5946,7 +5943,7 @@
       <c r="M11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5973,7 +5970,7 @@
       <c r="M12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -6000,7 +5997,7 @@
       <c r="M13" s="3"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -6027,7 +6024,7 @@
       <c r="M14" s="3"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -6054,7 +6051,7 @@
       <c r="M15" s="3"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15">
       <c r="A16" s="20" t="b">
         <v>1</v>
       </c>
@@ -6078,7 +6075,7 @@
       <c r="M16" s="3"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -6108,7 +6105,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -6148,7 +6145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -6176,7 +6173,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6204,7 +6201,7 @@
       <c r="M20" s="3"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -6232,7 +6229,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6260,7 +6257,7 @@
       <c r="M22" s="3"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6288,7 +6285,7 @@
       <c r="M23" s="3"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6316,7 +6313,7 @@
       <c r="M24" s="3"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6344,7 +6341,7 @@
       <c r="M25" s="3"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" customFormat="1">
       <c r="A26" t="b">
         <v>1</v>
       </c>
@@ -6359,7 +6356,7 @@
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" customFormat="1">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -6383,7 +6380,7 @@
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" customFormat="1">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -6420,7 +6417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" customFormat="1">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -6441,7 +6438,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" customFormat="1">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -6462,7 +6459,7 @@
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" customFormat="1">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -6483,7 +6480,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" customFormat="1" ht="15">
       <c r="A32" s="20" t="b">
         <v>0</v>
       </c>
@@ -6508,7 +6505,7 @@
       <c r="N32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>26</v>
@@ -6548,7 +6545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" customFormat="1" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -6588,7 +6585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -6612,7 +6609,7 @@
       <c r="I35" s="20"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" customFormat="1" ht="15">
       <c r="A36" s="20" t="b">
         <v>1</v>
       </c>
@@ -6632,7 +6629,7 @@
       <c r="I36" s="20"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" customFormat="1" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -6658,7 +6655,7 @@
       </c>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" customFormat="1" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>26</v>
@@ -6698,7 +6695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" customFormat="1" ht="15">
       <c r="A39" s="20" t="b">
         <v>0</v>
       </c>
@@ -6718,7 +6715,7 @@
       <c r="I39" s="20"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" customFormat="1" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -6744,7 +6741,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" customFormat="1" ht="15">
       <c r="A41" s="20"/>
       <c r="B41" s="20" t="s">
         <v>25</v>
@@ -6770,7 +6767,7 @@
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" customFormat="1" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>26</v>
@@ -6810,7 +6807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" customFormat="1" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -6834,7 +6831,7 @@
       <c r="I43" s="20"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" customFormat="1" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -6858,7 +6855,7 @@
       <c r="I44" s="20"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" customFormat="1" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -6882,7 +6879,7 @@
       <c r="I45" s="20"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" customFormat="1" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -6906,7 +6903,7 @@
       <c r="I46" s="20"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" customFormat="1" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -6930,7 +6927,7 @@
       <c r="I47" s="20"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" customFormat="1" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -6954,7 +6951,7 @@
       <c r="I48" s="20"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" customFormat="1" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -6978,7 +6975,7 @@
       <c r="I49" s="20"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" customFormat="1" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -7002,7 +6999,7 @@
       <c r="I50" s="20"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" customFormat="1" ht="15">
       <c r="A51" s="20"/>
       <c r="B51" s="20" t="s">
         <v>25</v>
@@ -7026,7 +7023,7 @@
       <c r="I51" s="20"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" customFormat="1" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -7050,7 +7047,7 @@
       <c r="I52" s="20"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" customFormat="1" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -7074,7 +7071,7 @@
       <c r="I53" s="20"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" customFormat="1" ht="15">
       <c r="A54" t="b">
         <v>0</v>
       </c>
@@ -7094,7 +7091,7 @@
       <c r="I54" s="20"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" customFormat="1" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -7120,7 +7117,7 @@
       </c>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" customFormat="1" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>26</v>
@@ -7160,7 +7157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" customFormat="1" ht="15">
       <c r="A57" t="b">
         <v>0</v>
       </c>
@@ -7189,7 +7186,7 @@
       <c r="R57" s="33"/>
       <c r="S57" s="33"/>
     </row>
-    <row r="58" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" customFormat="1" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7224,7 +7221,7 @@
       <c r="R58" s="33"/>
       <c r="S58" s="33"/>
     </row>
-    <row r="59" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" customFormat="1" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>26</v>
@@ -7268,7 +7265,7 @@
       <c r="R59" s="33"/>
       <c r="S59" s="33"/>
     </row>
-    <row r="60" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" customFormat="1" ht="15">
       <c r="A60" t="b">
         <v>0</v>
       </c>
@@ -7297,7 +7294,7 @@
       <c r="R60" s="33"/>
       <c r="S60" s="33"/>
     </row>
-    <row r="61" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" customFormat="1" ht="15">
       <c r="A61" s="20"/>
       <c r="B61" s="20" t="s">
         <v>25</v>
@@ -7332,7 +7329,7 @@
       <c r="R61" s="33"/>
       <c r="S61" s="33"/>
     </row>
-    <row r="62" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" customFormat="1" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>26</v>
@@ -7376,7 +7373,7 @@
       <c r="R62" s="33"/>
       <c r="S62" s="33"/>
     </row>
-    <row r="63" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" customFormat="1" ht="15">
       <c r="A63" t="b">
         <v>0</v>
       </c>
@@ -7405,7 +7402,7 @@
       <c r="R63" s="33"/>
       <c r="S63" s="33"/>
     </row>
-    <row r="64" spans="1:19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" customFormat="1" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7440,7 +7437,7 @@
       <c r="R64" s="33"/>
       <c r="S64" s="33"/>
     </row>
-    <row r="65" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" customFormat="1" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>26</v>
@@ -7484,7 +7481,7 @@
       <c r="R65" s="33"/>
       <c r="S65" s="33"/>
     </row>
-    <row r="66" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" customFormat="1" ht="15">
       <c r="A66" t="b">
         <v>0</v>
       </c>
@@ -7513,7 +7510,7 @@
       <c r="R66" s="33"/>
       <c r="S66" s="33"/>
     </row>
-    <row r="67" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7550,7 +7547,7 @@
       <c r="U67" s="33"/>
       <c r="V67" s="33"/>
     </row>
-    <row r="68" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>26</v>
@@ -7596,7 +7593,7 @@
       <c r="U68" s="33"/>
       <c r="V68" s="33"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22">
       <c r="A69" t="b">
         <v>1</v>
       </c>
@@ -7620,7 +7617,7 @@
       <c r="U69" s="33"/>
       <c r="V69" s="33"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22">
       <c r="A70"/>
       <c r="B70" t="s">
         <v>25</v>
@@ -7650,7 +7647,7 @@
       <c r="U70" s="33"/>
       <c r="V70" s="33"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22">
       <c r="A71"/>
       <c r="B71" t="s">
         <v>25</v>
@@ -7678,7 +7675,7 @@
       <c r="U71" s="33"/>
       <c r="V71" s="33"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22">
       <c r="A72"/>
       <c r="B72" t="s">
         <v>26</v>
@@ -7721,7 +7718,7 @@
       <c r="U72" s="33"/>
       <c r="V72" s="33"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22">
       <c r="A73"/>
       <c r="B73" t="s">
         <v>25</v>
@@ -7749,7 +7746,7 @@
       <c r="U73" s="33"/>
       <c r="V73" s="33"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22">
       <c r="A74"/>
       <c r="B74" t="s">
         <v>25</v>
@@ -7777,7 +7774,7 @@
       <c r="U74" s="33"/>
       <c r="V74" s="33"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22">
       <c r="A75"/>
       <c r="B75" t="s">
         <v>25</v>
@@ -7807,7 +7804,7 @@
       <c r="U75" s="33"/>
       <c r="V75" s="33"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22">
       <c r="A76"/>
       <c r="B76" t="s">
         <v>25</v>
@@ -7837,7 +7834,7 @@
       <c r="U76" s="33"/>
       <c r="V76" s="33"/>
     </row>
-    <row r="77" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" customFormat="1">
       <c r="A77" t="b">
         <v>0</v>
       </c>
@@ -7862,7 +7859,7 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" customFormat="1" ht="15">
       <c r="B78" t="s">
         <v>26</v>
       </c>
@@ -7903,7 +7900,7 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" customFormat="1">
       <c r="B79" t="s">
         <v>25</v>
       </c>
@@ -7934,7 +7931,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22">
       <c r="A80"/>
       <c r="B80" t="s">
         <v>25</v>
@@ -7956,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22">
       <c r="A81"/>
       <c r="B81" t="s">
         <v>25</v>
@@ -7978,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22">
       <c r="A82"/>
       <c r="B82" t="s">
         <v>25</v>
@@ -8000,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" customFormat="1">
       <c r="A83" s="1" t="b">
         <v>1</v>
       </c>
@@ -8026,7 +8023,7 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
     </row>
-    <row r="84" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" customFormat="1">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>25</v>
@@ -8055,7 +8052,7 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
     </row>
-    <row r="85" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" customFormat="1" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" t="s">
         <v>26</v>
@@ -8094,7 +8091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" customFormat="1">
       <c r="A86" t="b">
         <v>1</v>
       </c>
@@ -8108,7 +8105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" customFormat="1">
       <c r="B87" t="s">
         <v>26</v>
       </c>
@@ -8144,7 +8141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" customFormat="1">
       <c r="B88" t="s">
         <v>26</v>
       </c>
@@ -8180,7 +8177,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" customFormat="1">
       <c r="A89" t="b">
         <v>0</v>
       </c>
@@ -8194,7 +8191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" customFormat="1">
       <c r="B90" t="s">
         <v>26</v>
       </c>
@@ -8230,7 +8227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" customFormat="1">
       <c r="A91" t="b">
         <v>0</v>
       </c>
@@ -8244,7 +8241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" customFormat="1">
       <c r="B92" t="s">
         <v>26</v>
       </c>
@@ -8280,7 +8277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" customFormat="1">
       <c r="A93" t="b">
         <v>1</v>
       </c>
@@ -8294,7 +8291,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" customFormat="1">
       <c r="B94" t="s">
         <v>26</v>
       </c>
@@ -8330,7 +8327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22">
       <c r="A95" t="b">
         <v>1</v>
       </c>
@@ -8362,7 +8359,7 @@
       <c r="U95" s="33"/>
       <c r="V95" s="33"/>
     </row>
-    <row r="96" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" customFormat="1">
       <c r="B96" t="s">
         <v>26</v>
       </c>
@@ -8424,18 +8421,18 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="1"/>
+    <col min="7" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -8446,7 +8443,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>483</v>
       </c>
@@ -8469,7 +8466,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="15">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -8481,7 +8478,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>597</v>
       </c>
@@ -8500,7 +8497,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>599</v>
       </c>
@@ -8519,7 +8516,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -8527,7 +8524,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -8535,7 +8532,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -8543,7 +8540,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -8551,7 +8548,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -8559,7 +8556,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -8567,7 +8564,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -8575,7 +8572,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -8583,7 +8580,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -8591,23 +8588,23 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" customFormat="1">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" customFormat="1">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" customFormat="1"/>
+    <row r="18" spans="1:7" customFormat="1">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" customFormat="1">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" customFormat="1">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -8615,7 +8612,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -8623,7 +8620,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -8631,7 +8628,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -8639,7 +8636,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -8647,7 +8644,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -8655,7 +8652,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -8663,7 +8660,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -8671,7 +8668,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -8680,7 +8677,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -8708,19 +8705,19 @@
       <selection activeCell="A345" sqref="A345:XFD346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -8739,7 +8736,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -8760,7 +8757,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -8783,7 +8780,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -8806,7 +8803,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -8829,7 +8826,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -8852,7 +8849,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -8875,7 +8872,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -8898,7 +8895,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -8921,7 +8918,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -8944,7 +8941,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -8963,7 +8960,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -8984,7 +8981,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -9007,7 +9004,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -9030,7 +9027,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -9053,7 +9050,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -9076,7 +9073,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -9099,7 +9096,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -9122,7 +9119,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -9145,7 +9142,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -9168,7 +9165,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -9187,7 +9184,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -9210,7 +9207,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -9233,7 +9230,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -9256,7 +9253,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -9279,7 +9276,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -9302,7 +9299,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -9325,7 +9322,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -9348,7 +9345,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -9371,7 +9368,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -9394,7 +9391,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -9413,7 +9410,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -9434,7 +9431,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -9457,7 +9454,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -9480,7 +9477,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -9503,7 +9500,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -9526,7 +9523,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -9549,7 +9546,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -9572,7 +9569,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -9595,7 +9592,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -9618,7 +9615,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -9637,7 +9634,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -9658,7 +9655,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -9681,7 +9678,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -9704,7 +9701,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -9727,7 +9724,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -9750,7 +9747,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -9773,7 +9770,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -9796,7 +9793,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -9819,7 +9816,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -9842,7 +9839,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -9861,7 +9858,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -9882,7 +9879,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -9905,7 +9902,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -9928,7 +9925,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -9951,7 +9948,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -9974,7 +9971,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -9997,7 +9994,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -10020,7 +10017,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -10043,7 +10040,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -10066,7 +10063,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -10085,7 +10082,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -10106,7 +10103,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -10131,7 +10128,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -10154,7 +10151,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -10177,7 +10174,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -10200,7 +10197,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -10223,7 +10220,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -10246,7 +10243,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -10269,7 +10266,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -10292,7 +10289,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -10315,7 +10312,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -10334,7 +10331,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -10355,7 +10352,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -10378,7 +10375,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -10403,7 +10400,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -10426,7 +10423,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -10449,7 +10446,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -10472,7 +10469,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -10495,7 +10492,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -10518,7 +10515,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -10541,7 +10538,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -10564,7 +10561,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -10587,7 +10584,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -10610,7 +10607,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -10633,7 +10630,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -10652,7 +10649,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -10675,7 +10672,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -10698,7 +10695,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -10721,7 +10718,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -10744,7 +10741,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -10767,7 +10764,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -10790,7 +10787,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -10813,7 +10810,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -10836,7 +10833,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -10859,7 +10856,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -10882,7 +10879,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -10901,7 +10898,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -10926,7 +10923,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -10945,7 +10942,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -10966,7 +10963,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -10991,7 +10988,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -11010,7 +11007,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -11033,7 +11030,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -11058,7 +11055,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -11081,7 +11078,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -11102,7 +11099,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -11121,7 +11118,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -11146,7 +11143,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -11169,7 +11166,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -11192,7 +11189,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -11215,7 +11212,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -11238,7 +11235,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -11261,7 +11258,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -11284,7 +11281,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -11303,7 +11300,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -11326,7 +11323,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -11349,7 +11346,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -11372,7 +11369,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -11391,7 +11388,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -11414,7 +11411,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -11437,7 +11434,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -11460,7 +11457,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -11483,7 +11480,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -11506,7 +11503,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -11529,7 +11526,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -11548,7 +11545,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -11573,7 +11570,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -11596,7 +11593,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -11619,7 +11616,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -11642,7 +11639,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -11665,7 +11662,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -11688,7 +11685,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -11711,7 +11708,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -11734,7 +11731,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -11757,7 +11754,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -11776,7 +11773,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -11801,7 +11798,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -11822,7 +11819,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -11845,7 +11842,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -11868,7 +11865,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -11891,7 +11888,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -11914,7 +11911,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -11937,7 +11934,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -11960,7 +11957,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -11983,7 +11980,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -12006,7 +12003,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -12029,7 +12026,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -12052,7 +12049,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -12075,7 +12072,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -12098,7 +12095,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -12117,7 +12114,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -12140,7 +12137,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -12159,7 +12156,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -12182,7 +12179,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -12205,7 +12202,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -12224,7 +12221,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -12249,7 +12246,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -12272,7 +12269,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -12295,7 +12292,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -12318,7 +12315,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -12341,7 +12338,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -12364,7 +12361,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -12387,7 +12384,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -12410,7 +12407,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -12433,7 +12430,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -12456,7 +12453,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -12475,7 +12472,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -12500,7 +12497,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -12523,7 +12520,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -12546,7 +12543,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -12569,7 +12566,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -12592,7 +12589,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -12615,7 +12612,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -12638,7 +12635,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -12661,7 +12658,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -12684,7 +12681,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -12707,7 +12704,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -12726,7 +12723,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -12749,7 +12746,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -12772,7 +12769,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -12795,7 +12792,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -12818,7 +12815,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -12837,7 +12834,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -12860,7 +12857,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -12883,7 +12880,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -12906,7 +12903,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -12929,7 +12926,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -12948,7 +12945,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -12969,7 +12966,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -12992,7 +12989,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -13011,7 +13008,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -13034,7 +13031,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -13059,7 +13056,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -13080,7 +13077,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -13105,7 +13102,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -13130,7 +13127,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -13149,7 +13146,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -13174,7 +13171,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -13197,7 +13194,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -13220,7 +13217,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -13243,7 +13240,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -13266,7 +13263,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -13289,7 +13286,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -13312,7 +13309,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -13335,7 +13332,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -13358,7 +13355,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -13377,7 +13374,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -13402,7 +13399,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -13425,7 +13422,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -13448,7 +13445,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -13471,7 +13468,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -13494,7 +13491,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -13517,7 +13514,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -13540,7 +13537,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -13563,7 +13560,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -13586,7 +13583,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -13605,7 +13602,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -13626,7 +13623,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -13649,7 +13646,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -13672,7 +13669,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -13695,7 +13692,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -13718,7 +13715,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -13741,7 +13738,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -13764,7 +13761,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -13787,7 +13784,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -13810,7 +13807,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -13833,7 +13830,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -13856,7 +13853,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -13879,7 +13876,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -13902,7 +13899,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -13925,7 +13922,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -13948,7 +13945,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -13971,7 +13968,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -13990,7 +13987,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -14011,7 +14008,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -14034,7 +14031,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -14057,7 +14054,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -14080,7 +14077,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -14103,7 +14100,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -14126,7 +14123,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -14149,7 +14146,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -14172,7 +14169,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -14195,7 +14192,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -14218,7 +14215,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -14241,7 +14238,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -14264,7 +14261,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -14287,7 +14284,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -14310,7 +14307,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -14333,7 +14330,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -14356,7 +14353,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -14375,7 +14372,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -14400,7 +14397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -14423,7 +14420,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -14446,7 +14443,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -14469,7 +14466,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -14492,7 +14489,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -14511,7 +14508,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -14536,7 +14533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -14559,7 +14556,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -14578,7 +14575,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -14597,7 +14594,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -14616,7 +14613,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -14637,7 +14634,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -14660,7 +14657,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -14683,7 +14680,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -14706,7 +14703,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -14729,7 +14726,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -14752,7 +14749,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -14775,7 +14772,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -14798,7 +14795,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -14821,7 +14818,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -14844,7 +14841,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -14867,7 +14864,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -14886,7 +14883,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -14909,7 +14906,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -14928,7 +14925,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -14953,7 +14950,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -14976,7 +14973,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -14999,7 +14996,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -15022,7 +15019,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -15045,7 +15042,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -15068,7 +15065,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -15091,7 +15088,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -15114,7 +15111,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -15137,7 +15134,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -15160,7 +15157,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -15183,7 +15180,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -15202,7 +15199,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -15225,7 +15222,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -15244,7 +15241,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -15265,7 +15262,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -15284,7 +15281,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -15305,7 +15302,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -15324,7 +15321,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -15345,7 +15342,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -15364,7 +15361,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -15387,7 +15384,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -15406,7 +15403,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -15431,7 +15428,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -15454,7 +15451,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -15477,7 +15474,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -15500,7 +15497,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -15523,7 +15520,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -15546,7 +15543,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -15569,7 +15566,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -15592,7 +15589,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -15615,7 +15612,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -15634,7 +15631,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -15657,7 +15654,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -15680,7 +15677,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -15703,7 +15700,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -15726,7 +15723,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -15745,7 +15742,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -15768,7 +15765,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -15791,7 +15788,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -15816,7 +15813,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -15835,7 +15832,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -15860,7 +15857,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -15883,7 +15880,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -15902,7 +15899,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -15923,7 +15920,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -15944,7 +15941,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -15967,7 +15964,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -15986,7 +15983,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -16005,7 +16002,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -16030,7 +16027,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -16055,7 +16052,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -16069,7 +16066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>25</v>
       </c>
@@ -16092,7 +16089,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>25</v>
       </c>
@@ -16112,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>25</v>
       </c>
@@ -16132,7 +16129,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>25</v>
       </c>
@@ -16152,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>25</v>
       </c>
@@ -16169,7 +16166,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>25</v>
       </c>
@@ -16192,7 +16189,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>25</v>
       </c>
@@ -16215,7 +16212,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -16229,7 +16226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>25</v>
       </c>
@@ -16252,7 +16249,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>25</v>
       </c>
@@ -16275,7 +16272,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>25</v>
       </c>
@@ -16295,7 +16292,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>25</v>
       </c>
@@ -16315,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>25</v>
       </c>
@@ -16332,7 +16329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -16358,7 +16355,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>25</v>
@@ -16387,7 +16384,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="20"/>
       <c r="B344" t="s">
         <v>25</v>
@@ -16426,7 +16423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -16440,7 +16437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>25</v>
       </c>
@@ -16460,7 +16457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -16474,7 +16471,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>25</v>
       </c>
@@ -16494,7 +16491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>25</v>
       </c>
@@ -16514,7 +16511,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>25</v>
       </c>
@@ -16534,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>25</v>
       </c>
@@ -16554,7 +16551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>25</v>
       </c>
@@ -16574,7 +16571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>25</v>
       </c>
@@ -16594,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>25</v>
       </c>
@@ -16614,7 +16611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>25</v>
       </c>
@@ -16634,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>25</v>
       </c>
@@ -16654,7 +16651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -16668,7 +16665,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>25</v>
       </c>
@@ -16688,7 +16685,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>25</v>
       </c>
@@ -16708,7 +16705,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -16724,7 +16721,7 @@
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>25</v>
       </c>
@@ -16750,7 +16747,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="20"/>
       <c r="B362" t="s">
         <v>26</v>
@@ -16791,7 +16788,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -16805,7 +16802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>25</v>
       </c>
@@ -16825,7 +16822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -16839,7 +16836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>25</v>
       </c>
@@ -16878,13 +16875,13 @@
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>458</v>
       </c>
@@ -16895,7 +16892,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -16906,7 +16903,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -16917,7 +16914,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -16928,7 +16925,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>450</v>
       </c>
@@ -16939,17 +16936,17 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>475</v>
       </c>
